--- a/biology/Botanique/Eriogonum_inflatum/Eriogonum_inflatum.xlsx
+++ b/biology/Botanique/Eriogonum_inflatum/Eriogonum_inflatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriogonum inflatum est une plante de la famille des Polygonaceae, originaire du sud-ouest des États-Unis et du nord du Mexique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée grêle mesure entre 10 et 100 cm de hauteur[1]. Les feuilles forment une rosette à la base de la plante. Elles possèdent un long pétiole et leur limbe, qui mesure de 1 à 5 cm de longueur, est de forme ovale[1]. De cette rosette s'élèvent une ou quelques tiges vert-gris, dépourvues de feuilles, qui sont charnues juste en dessous de leur ramification. Cette partie enflée a un goût acidulé assez plaisant[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juillet.
-Les fleurs, minuscules et de couleur jaune, apparaissent à l'extrémité d'un pétiole très mince sur la partie ramifiée des tiges.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée grêle mesure entre 10 et 100 cm de hauteur. Les feuilles forment une rosette à la base de la plante. Elles possèdent un long pétiole et leur limbe, qui mesure de 1 à 5 cm de longueur, est de forme ovale. De cette rosette s'élèvent une ou quelques tiges vert-gris, dépourvues de feuilles, qui sont charnues juste en dessous de leur ramification. Cette partie enflée a un goût acidulé assez plaisant.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eriogonum inflatum pousse sur sol sableux ou rocheux des déserts du nord du Mexique et du sud-ouest des États-Unis. On la trouve notamment du sud de la Californie jusqu'au sud de l'Utah, dans une grande partie de l'Arizona, et en Basse-Californie.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juillet.
+Les fleurs, minuscules et de couleur jaune, apparaissent à l'extrémité d'un pétiole très mince sur la partie ramifiée des tiges.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriogonum inflatum pousse sur sol sableux ou rocheux des déserts du nord du Mexique et du sud-ouest des États-Unis. On la trouve notamment du sud de la Californie jusqu'au sud de l'Utah, dans une grande partie de l'Arizona, et en Basse-Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eriogonum_inflatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriogonum_inflatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Eriogonum inflatum et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges séchées de cette plante étaient fumées par certains Amérindiens[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges séchées de cette plante étaient fumées par certains Amérindiens.
 </t>
         </is>
       </c>
